--- a/Feature-Analysis/Resize Feature/s_27_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_27_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.4813310185</v>
+        <v>738157.4813310185</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.48190972221</v>
+        <v>738157.48190972221</v>
       </c>
       <c r="C3" s="0">
         <v>50.00000037252903</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.4822453704</v>
+        <v>738157.4822453704</v>
       </c>
       <c r="C4" s="0">
         <v>79.000004008412361</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.4825925926</v>
+        <v>738157.4825925926</v>
       </c>
       <c r="C5" s="0">
         <v>109.00000222027302</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.48295138893</v>
+        <v>738157.48295138893</v>
       </c>
       <c r="C6" s="0">
         <v>140.00000506639481</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.48327546299</v>
+        <v>738157.48327546299</v>
       </c>
       <c r="C7" s="0">
         <v>168.00000406801701</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.48364583333</v>
+        <v>738157.48364583333</v>
       </c>
       <c r="C8" s="0">
         <v>200.00000149011612</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.48396990739</v>
+        <v>738157.48396990739</v>
       </c>
       <c r="C9" s="0">
         <v>228.00000049173832</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.48434027773</v>
+        <v>738157.48434027773</v>
       </c>
       <c r="C10" s="0">
         <v>259.99999791383743</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.48468750005</v>
+        <v>738157.48468750005</v>
       </c>
       <c r="C11" s="0">
         <v>290.0000061839819</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.48502314813</v>
+        <v>738157.48502314813</v>
       </c>
       <c r="C12" s="0">
         <v>318.99999976158142</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.48535879632</v>
+        <v>738157.48535879632</v>
       </c>
       <c r="C13" s="0">
         <v>348.00000339746475</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.48571759264</v>
+        <v>738157.48571759264</v>
       </c>
       <c r="C14" s="0">
         <v>379.00000624358654</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.48605324072</v>
+        <v>738157.48605324072</v>
       </c>
       <c r="C15" s="0">
         <v>407.99999982118607</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.48641203705</v>
+        <v>738157.48641203705</v>
       </c>
       <c r="C16" s="0">
         <v>439.00000266730785</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.48678240739</v>
+        <v>738157.48678240739</v>
       </c>
       <c r="C17" s="0">
         <v>471.00000008940697</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.48711805558</v>
+        <v>738157.48711805558</v>
       </c>
       <c r="C18" s="0">
         <v>500.0000037252903</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.48744212964</v>
+        <v>738157.48744212964</v>
       </c>
       <c r="C19" s="0">
         <v>528.0000027269125</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.48781249998</v>
+        <v>738157.48781249998</v>
       </c>
       <c r="C20" s="0">
         <v>560.00000014901161</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.48814814817</v>
+        <v>738157.48814814817</v>
       </c>
       <c r="C21" s="0">
         <v>589.00000378489494</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.48849537037</v>
+        <v>738157.48849537037</v>
       </c>
       <c r="C22" s="0">
         <v>619.0000019967556</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.48878472217</v>
+        <v>738157.48878472217</v>
       </c>
       <c r="C23" s="0">
         <v>643.99999715387821</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.48930555559</v>
+        <v>738157.48930555559</v>
       </c>
       <c r="C24" s="0">
         <v>689.000004529953</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.48964120366</v>
+        <v>738157.48964120366</v>
       </c>
       <c r="C25" s="0">
         <v>717.99999810755253</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.48999999999</v>
+        <v>738157.48999999999</v>
       </c>
       <c r="C26" s="0">
         <v>749.00000095367432</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.49035879632</v>
+        <v>738157.49035879632</v>
       </c>
       <c r="C27" s="0">
         <v>780.0000037997961</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.49069444439</v>
+        <v>738157.49069444439</v>
       </c>
       <c r="C28" s="0">
         <v>808.99999737739563</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.49106481485</v>
+        <v>738157.49106481485</v>
       </c>
       <c r="C29" s="0">
         <v>841.00000485777855</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.49106481485</v>
+        <v>738157.49106481485</v>
       </c>
       <c r="C30" s="0">
         <v>841.00000485777855</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.49141203705</v>
+        <v>738157.49141203705</v>
       </c>
       <c r="C31" s="0">
         <v>871.00000306963921</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.49177083338</v>
+        <v>738157.49177083338</v>
       </c>
       <c r="C32" s="0">
         <v>902.00000591576099</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.49210648146</v>
+        <v>738157.49210648146</v>
       </c>
       <c r="C33" s="0">
         <v>930.99999949336052</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.49252314819</v>
+        <v>738157.49252314819</v>
       </c>
       <c r="C34" s="0">
         <v>967.00000539422035</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.49280092597</v>
+        <v>738157.49280092597</v>
       </c>
       <c r="C35" s="0">
         <v>991.00000597536564</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.49349537038</v>
+        <v>738157.49349537038</v>
       </c>
       <c r="C36" s="0">
         <v>1051.000002399087</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.49349537038</v>
+        <v>738157.49349537038</v>
       </c>
       <c r="C37" s="0">
         <v>1051.000002399087</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.49384259258</v>
+        <v>738157.49384259258</v>
       </c>
       <c r="C38" s="0">
         <v>1081.0000006109476</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.49418981478</v>
+        <v>738157.49418981478</v>
       </c>
       <c r="C39" s="0">
         <v>1110.9999988228083</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.4948842593</v>
+        <v>738157.4948842593</v>
       </c>
       <c r="C40" s="0">
         <v>1171.0000053048134</v>
